--- a/参数页复制后.xlsx
+++ b/参数页复制后.xlsx
@@ -1937,8 +1937,7 @@
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">L6T7742Z5LU014004
-</t>
+          <t>LGXC14DFXL0121934</t>
         </is>
       </c>
       <c r="D5" s="150" t="n"/>
@@ -2012,7 +2011,7 @@
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="158" t="inlineStr">
         <is>
-          <t>w20001</t>
+          <t>样品编号封装测试</t>
         </is>
       </c>
       <c r="D9" s="151" t="n"/>
@@ -2036,7 +2035,7 @@
       </c>
       <c r="D10" s="54" t="inlineStr">
         <is>
-          <t>JLE-4G18TDC</t>
+          <t>BYD476ZQB</t>
         </is>
       </c>
       <c r="E10" s="114" t="n"/>
@@ -2063,7 +2062,8 @@
       </c>
       <c r="D12" s="58" t="inlineStr">
         <is>
-          <t>浙江吉利汽车有限公司</t>
+          <t xml:space="preserve">比亚迪汽车有限公司
+</t>
         </is>
       </c>
       <c r="E12" s="58" t="n"/>
@@ -2301,7 +2301,7 @@
     <row customHeight="1" ht="29" r="25" s="134">
       <c r="A25" s="102" t="inlineStr">
         <is>
-          <t>4.检验日期：2020年9月17日</t>
+          <t>4.检验时间封装测试</t>
         </is>
       </c>
       <c r="B25" s="153" t="n"/>
@@ -2316,7 +2316,7 @@
     <row customHeight="1" ht="29.25" r="26" s="134">
       <c r="A26" s="103" t="inlineStr">
         <is>
-          <t>5.检验地点：郑州市花园北路与开元路交叉口省汽贸院内吉利有限公司</t>
+          <t>5.检验地点封装测试公司名称封装测试</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       <c r="E43" s="8" t="n"/>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>报告编号：bianhao001</t>
+          <t>报告编号：报告编号封装测试</t>
         </is>
       </c>
       <c r="G43" s="110" t="n"/>
@@ -3252,7 +3252,7 @@
       <c r="A94" s="19" t="n"/>
       <c r="B94" s="163" t="inlineStr">
         <is>
-          <t>外观检验照片见bianhao001#光盘 文件夹</t>
+          <t>外观检验照片见报告编号封装测试#光盘 文件夹</t>
         </is>
       </c>
       <c r="C94" s="151" t="n"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="G102" s="144" t="inlineStr">
         <is>
-          <t>是否</t>
+          <t>cal1</t>
         </is>
       </c>
       <c r="H102" s="144" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="I102" s="144" t="inlineStr">
         <is>
-          <t>是否</t>
+          <t>cvn1</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="G104" s="146" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>cal2</t>
         </is>
       </c>
       <c r="H104" s="146" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="I104" s="146" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>cvn2</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       <c r="C4" s="150" t="n"/>
       <c r="D4" s="21" t="inlineStr">
         <is>
-          <t>MR6453D35</t>
+          <t>BYD6460ST6B</t>
         </is>
       </c>
       <c r="E4" s="150" t="n"/>
@@ -3707,7 +3707,8 @@
       <c r="G4" s="150" t="n"/>
       <c r="H4" s="21" t="inlineStr">
         <is>
-          <t>吉利美日牌</t>
+          <t xml:space="preserve">比亚迪（BYD）
+</t>
         </is>
       </c>
       <c r="I4" s="150" t="n"/>
@@ -3749,7 +3750,7 @@
       <c r="C6" s="150" t="n"/>
       <c r="D6" s="23" t="inlineStr">
         <is>
-          <t xml:space="preserve">识别方法:铭牌 位置:右侧B柱下方
+          <t xml:space="preserve">铭牌、右侧B柱下方
 </t>
         </is>
       </c>
@@ -3762,7 +3763,8 @@
       <c r="G6" s="150" t="n"/>
       <c r="H6" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 浙江吉利汽车有限公司</t>
+          <t xml:space="preserve">比亚迪汽车有限公司
+</t>
         </is>
       </c>
       <c r="I6" s="150" t="n"/>
@@ -3777,7 +3779,7 @@
       <c r="C7" s="150" t="n"/>
       <c r="D7" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">宁波经济技术开发区新碶街道恒山路1528号
+          <t xml:space="preserve">西安市高新区草堂科技产业基地秦岭大道西1号
 </t>
         </is>
       </c>
@@ -3790,7 +3792,7 @@
       <c r="G7" s="150" t="n"/>
       <c r="H7" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">L1CC0715003
+          <t xml:space="preserve">F20055842
 </t>
         </is>
       </c>
@@ -3805,7 +3807,7 @@
       </c>
       <c r="C8" s="150" t="n"/>
       <c r="D8" s="39" t="n">
-        <v>1785</v>
+        <v>1730</v>
       </c>
       <c r="E8" s="150" t="n"/>
       <c r="F8" s="165" t="inlineStr">
@@ -3816,7 +3818,7 @@
       <c r="G8" s="150" t="n"/>
       <c r="H8" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">JLE-4G18TDC/浙江吉利汽车有限公司
+          <t xml:space="preserve">BYD476ZQB/比亚迪汽车有限公司
 </t>
         </is>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="C9" s="150" t="n"/>
       <c r="D9" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">前:JL/前:无锡威孚力达催化净化器有限责任公司
+          <t xml:space="preserve">前:GS6J3024/前:长沙佛吉亚排气控制技术有限公司
 </t>
         </is>
       </c>
@@ -3845,8 +3847,7 @@
       <c r="G9" s="150" t="n"/>
       <c r="H9" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">前:单元1:庄信万丰(上海)化工有限公司/前:单元1:康宁(上海)有限公司/前:无锡威孚力达催化净化器有限责任公司
-</t>
+          <t>前:单元1:巴斯夫催化剂（上海）有限公司/前:单元1:NGK（苏州）环保陶瓷有限公司/前:长沙佛吉亚排气控制技术有限公司</t>
         </is>
       </c>
       <c r="I9" s="150" t="n"/>
@@ -3861,7 +3862,7 @@
       <c r="C10" s="150" t="n"/>
       <c r="D10" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">前:JL/前:无锡威孚力达催化净化器有限责任公司
+          <t xml:space="preserve">前:GS6J3024/前:长沙佛吉亚排气控制技术有限公司
 </t>
         </is>
       </c>
@@ -3874,7 +3875,7 @@
       <c r="G10" s="150" t="n"/>
       <c r="H10" s="167" t="inlineStr">
         <is>
-          <t>前:单元1:庄信万丰(上海)化工有限公司/前:单元1:康宁汽车环保(合肥)有限公司/前:无锡威孚力达催化净化器有限责任公司</t>
+          <t>前:单元1:巴斯夫催化剂（上海）有限公司/前:单元1:NGK（苏州）环保陶瓷有限公司/前:长沙佛吉亚排气控制技术有限公司</t>
         </is>
       </c>
       <c r="I10" s="150" t="n"/>
@@ -3889,7 +3890,7 @@
       <c r="C11" s="150" t="n"/>
       <c r="D11" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">HA2300H/廊坊华安汽车装备有限公司
+          <t xml:space="preserve">CC210/斯丹德汽车系统(苏州)有限公司
 </t>
         </is>
       </c>
@@ -3902,7 +3903,8 @@
       <c r="G11" s="150" t="n"/>
       <c r="H11" s="168" t="inlineStr">
         <is>
-          <t>LSU ADV/LSF 4.2/联合汽车电子有限公司/联合汽车电子有限公司</t>
+          <t xml:space="preserve">前:LSUADV/后:LSF4.2/联合汽车电子有限公司
+</t>
         </is>
       </c>
       <c r="I11" s="150" t="n"/>
@@ -3917,7 +3919,7 @@
       <c r="C12" s="150" t="n"/>
       <c r="D12" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN18TD/苏州认知汽车配件有限公司
+          <t xml:space="preserve">BYD476ZQB-1014100/重庆溯联塑胶股份有限公司
 </t>
         </is>
       </c>
@@ -3945,7 +3947,8 @@
       <c r="C13" s="150" t="n"/>
       <c r="D13" s="167" t="inlineStr">
         <is>
-          <t>联合汽车电子有限公司</t>
+          <t xml:space="preserve">比亚迪汽车工业有限公司
+</t>
         </is>
       </c>
       <c r="E13" s="150" t="n"/>
@@ -3957,7 +3960,7 @@
       <c r="G13" s="150" t="n"/>
       <c r="H13" s="167" t="inlineStr">
         <is>
-          <t xml:space="preserve">MED17/联合汽车电子有限公司
+          <t xml:space="preserve">TB20/比亚迪汽车工业有限公司
 </t>
         </is>
       </c>
@@ -3973,7 +3976,7 @@
       <c r="C14" s="150" t="n"/>
       <c r="D14" s="169" t="inlineStr">
         <is>
-          <t>自动/7</t>
+          <t>手动/6</t>
         </is>
       </c>
       <c r="E14" s="152" t="n"/>
@@ -3985,7 +3988,8 @@
       <c r="G14" s="150" t="n"/>
       <c r="H14" s="167" t="inlineStr">
         <is>
-          <t>前:JL/后:JL/前:无锡威孚力达催化净化器有限责任公司/后:无锡威孚力达催化净化器有限责任公司</t>
+          <t xml:space="preserve">前BYDSAEF/中BYDEG/后BYDS6A/比亚迪汽车有限公司
+</t>
         </is>
       </c>
       <c r="I14" s="150" t="n"/>
@@ -4000,7 +4004,7 @@
       <c r="C15" s="150" t="n"/>
       <c r="D15" s="165" t="inlineStr">
         <is>
-          <t xml:space="preserve">VT02/宁波丰沃涡轮增压系统有限公司
+          <t xml:space="preserve">VT01/宁波丰沃涡轮增压系统有限公司
 </t>
         </is>
       </c>
@@ -4013,7 +4017,7 @@
       <c r="G15" s="150" t="n"/>
       <c r="H15" s="165" t="inlineStr">
         <is>
-          <t>空空</t>
+          <t>空水</t>
         </is>
       </c>
       <c r="I15" s="150" t="n"/>

--- a/参数页复制后.xlsx
+++ b/参数页复制后.xlsx
@@ -267,7 +267,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -476,6 +476,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -933,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24">
       <alignment vertical="center"/>
@@ -1416,6 +1421,12 @@
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="36" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="36" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2009,7 +2020,7 @@
         </is>
       </c>
       <c r="B9" s="150" t="n"/>
-      <c r="C9" s="158" t="inlineStr">
+      <c r="C9" s="170" t="inlineStr">
         <is>
           <t>样品编号封装测试</t>
         </is>
@@ -3250,7 +3261,7 @@
     </row>
     <row customHeight="1" ht="30" r="94" s="134">
       <c r="A94" s="19" t="n"/>
-      <c r="B94" s="163" t="inlineStr">
+      <c r="B94" s="171" t="inlineStr">
         <is>
           <t>外观检验照片见报告编号封装测试#光盘 文件夹</t>
         </is>
@@ -4236,7 +4247,6 @@
       <c r="G50" s="8" t="n"/>
       <c r="H50" s="88" t="n"/>
     </row>
-    <row r="51"/>
     <row r="94">
       <c r="A94" s="6" t="n"/>
     </row>
